--- a/Rasp/08.2023.xlsx
+++ b/Rasp/08.2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>График дежурств Август</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Телефон</t>
   </si>
   <si>
-    <t>Сырлыбаев Б</t>
+    <t>Александр Иванов</t>
   </si>
   <si>
-    <t>@baurandro</t>
+    <t>@alex_ivanov</t>
   </si>
   <si>
     <t>Сервис MPLS</t>
@@ -46,35 +46,43 @@
     <t>Архитектор решений</t>
   </si>
   <si>
-    <t>моб. 8-778-936-27-07
-раб. 8-7172-610-899</t>
+    <t>Рабочий: +1 (123) 456-7890, Мобильный: +1 (987) 654-3210</t>
   </si>
   <si>
-    <t>Калибеков Н</t>
+    <t>Екатерина Смирнова</t>
+  </si>
+  <si>
+    <t>@katya_smirnova</t>
   </si>
   <si>
     <t>Старший эксперт</t>
   </si>
   <si>
-    <t>моб. 8-778-850-60-86
-раб. 8-7172-610-703</t>
+    <t>Рабочий: +1 (234) 567-8901, Мобильный: +1 (876) 543-2109</t>
   </si>
   <si>
-    <t>Шукаев Е.</t>
+    <t>Максим Петров</t>
   </si>
   <si>
-    <t>моб. 8-701-373-33-69
-раб. 8-7172-611-233</t>
+    <t>@max_petrov</t>
   </si>
   <si>
-    <t>Кунафин А.</t>
+    <t>Рабочий: +1 (345) 678-9012, Мобильный: +1 (765) 432-1098</t>
   </si>
   <si>
-    <t>моб. 8-747-798-7363 
- раб. 8-7172-611-210</t>
+    <t>Ольга Сидорова</t>
   </si>
   <si>
-    <t>Муздаханов А.С.</t>
+    <t>@olga_sidorova</t>
+  </si>
+  <si>
+    <t>Рабочий: +1 (456) 789-0123, Мобильный: +1 (654) 321-0987</t>
+  </si>
+  <si>
+    <t>Дмитрий Яковлев</t>
+  </si>
+  <si>
+    <t>@dmitry_yakovlev</t>
   </si>
   <si>
     <t>Сервис Интернет</t>
@@ -83,23 +91,25 @@
     <t xml:space="preserve">Старший Эксперт </t>
   </si>
   <si>
-    <t>моб.8-775-553-18-96 
-         8-705-782-51-29
-раб. 8-7172-61-14-91</t>
+    <t>Рабочий: +1 (567) 890-1234, Мобильный: +1 (543) 210-9876</t>
   </si>
   <si>
-    <t>Усен Б.</t>
+    <t>Анна Кузнецова</t>
   </si>
   <si>
-    <t>моб.8-777-218-01-16
-раб. 8-7172-61-04-28</t>
+    <t>@anna_kuznetsova</t>
   </si>
   <si>
-    <t>Негметуллин Д</t>
+    <t>Рабочий: +1 (678) 901-2345, Мобильный: +1 (432) 109-8765</t>
   </si>
   <si>
-    <t>моб. 8-778-600-95-00
-раб. 8-7172-610-610</t>
+    <t>Иван Федоров</t>
+  </si>
+  <si>
+    <t>@ivan_fedorov</t>
+  </si>
+  <si>
+    <t>Рабочий: +1 (789) 012-3456, Мобильный: +1 (321) 098-7654</t>
   </si>
   <si>
     <t>ОТПУСК</t>
@@ -132,6 +142,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,12 +171,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -232,6 +242,13 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -321,13 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -411,85 +421,85 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1038,7 +1048,7 @@
       <c r="AU2" s="5"/>
       <c r="AV2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -1114,21 +1124,21 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="22">
         <v>1</v>
@@ -1190,21 +1200,21 @@
       <c r="AU4" s="5"/>
       <c r="AV4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23">
@@ -1266,21 +1276,21 @@
       <c r="AU5" s="5"/>
       <c r="AV5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
       <c r="A6" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -1342,21 +1352,21 @@
       <c r="AU6" s="5"/>
       <c r="AV6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
@@ -1428,21 +1438,21 @@
       <c r="AU7" s="5"/>
       <c r="AV7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29">
@@ -1512,21 +1522,21 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="29"/>
@@ -1539,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
